--- a/titleIntroductionTemplate/普通题目批量导入模板.xlsx
+++ b/titleIntroductionTemplate/普通题目批量导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8844"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
     <t>题目难度</t>
   </si>
   <si>
-    <t>题目选项（以中文“，”为隔断）</t>
-  </si>
-  <si>
-    <t>答案（多选题以及如果有多个填空以中文“，”隔开）</t>
+    <t>题目选项（以英文“%$%”为隔断）</t>
+  </si>
+  <si>
+    <t>答案（多选题以及如果有多个填空以中文“%$%”隔开）</t>
   </si>
   <si>
     <t>解析</t>
@@ -82,10 +82,10 @@
     <t>三级</t>
   </si>
   <si>
-    <t>A、测试A，B、测试B</t>
-  </si>
-  <si>
-    <t>A，B</t>
+    <t>A、测试A%$%B、测试B</t>
+  </si>
+  <si>
+    <t>A%$%B</t>
   </si>
   <si>
     <t>解析内容</t>
@@ -127,7 +127,7 @@
     <t>一级</t>
   </si>
   <si>
-    <t>填空答案1，填空答案2</t>
+    <t>填空答案1%$%填空答案2</t>
   </si>
   <si>
     <t>主观题</t>
@@ -1094,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
